--- a/tables/malgae_data.xlsx
+++ b/tables/malgae_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/00042030/AED Dropbox/Matt Hipsey/CDM/docs/CDM-manual/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\AED_Coorong_db\7_hchb\Ruppia\CDM-manual\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E34D351-D715-4547-9905-A6B56632676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D81305-4F5C-44B7-A716-F40D76D0A3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52020" yWindow="6920" windowWidth="28040" windowHeight="17440" xr2:uid="{B083D041-2B23-244E-B858-B2D2F8A0035F}"/>
+    <workbookView xWindow="8655" yWindow="5040" windowWidth="26985" windowHeight="12930" xr2:uid="{B083D041-2B23-244E-B858-B2D2F8A0035F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>UA MDBA_1</t>
   </si>
@@ -42,33 +42,6 @@
     <t>Date range</t>
   </si>
   <si>
-    <t>UA HCHB_1</t>
-  </si>
-  <si>
-    <t>2020 Sep/Oct</t>
-  </si>
-  <si>
-    <t>UA HCHB_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pending </t>
-  </si>
-  <si>
-    <t>2021 Mar</t>
-  </si>
-  <si>
-    <t>Algae presence/absence; Water depth (categorical)</t>
-  </si>
-  <si>
-    <t>Algae No/Rare/Present/Extreme; Water depth; Salinity</t>
-  </si>
-  <si>
-    <t>Algae cover% (0/20/40/50/60/80/100); Water depth; Salinity</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
@@ -91,6 +64,24 @@
   </si>
   <si>
     <t>Historical monitoring</t>
+  </si>
+  <si>
+    <t>Estimated algae biomass (7 categories); &lt;br&gt;Algae cover% (0/20/40/50/60/80/100);&lt;br&gt; Water depth; &lt;br&gt;Salinity</t>
+  </si>
+  <si>
+    <t>Algae presence/absence; &lt;br&gt;Water depth (categorical)</t>
+  </si>
+  <si>
+    <t>Algae No/Rare/Present/Extreme; &lt;br&gt;Water depth;&lt;br&gt; Salinity</t>
+  </si>
+  <si>
+    <t>2020 Sep - 2021 Dec</t>
+  </si>
+  <si>
+    <t>UA HCHB seasonal</t>
+  </si>
+  <si>
+    <t>~100 each season</t>
   </si>
 </sst>
 </file>
@@ -100,6 +91,13 @@
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -143,13 +141,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -171,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -213,30 +204,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF9CC2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF9CC2E5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF9CC2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF9CC2E5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF9CC2E5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -279,43 +246,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,50 +589,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9CBDAB-2357-AD44-A9E4-6EB6AF93F871}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -683,64 +642,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
